--- a/Holcene Revision/New_Layers.xlsx
+++ b/Holcene Revision/New_Layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinnmackay/Documents/GitHub/BICC/Holcene Revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67868433-ED4D-FC43-804D-2DA91B27EDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF4F5EE-2F7C-F24A-B3C3-57E5B508D27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34480" yWindow="660" windowWidth="34160" windowHeight="26400" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>2167-2174</t>
   </si>
   <si>
-    <t>582.21-580.58-571.78-578.38</t>
-  </si>
-  <si>
     <t>2383-2375-2400</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>3433-3442-3499-3535</t>
+  </si>
+  <si>
+    <t>582.21-580.58-572.05-578.38</t>
   </si>
 </sst>
 </file>
@@ -218,18 +218,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +569,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,11 +636,11 @@
       <c r="F2" s="1">
         <v>-0.20622222222226499</v>
       </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -663,11 +661,11 @@
       <c r="F3" s="1">
         <v>7.0119169719248406E-2</v>
       </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -688,11 +686,11 @@
       <c r="F4" s="1">
         <v>-7.8281093838427296E-2</v>
       </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -713,11 +711,11 @@
       <c r="F5" s="1">
         <v>-0.35458392877603701</v>
       </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -738,11 +736,11 @@
       <c r="F6" s="1">
         <v>-9.7639768019689599E-2</v>
       </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -763,11 +761,11 @@
       <c r="F7" s="1">
         <v>-7.1700490349257906E-2</v>
       </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -788,11 +786,11 @@
       <c r="F8" s="1">
         <v>0.72943560621354198</v>
       </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -813,13 +811,13 @@
       <c r="F9" s="1">
         <v>-1.2265439393937601</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>271.75</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -840,11 +838,11 @@
       <c r="F10" s="1">
         <v>-0.24927705314030299</v>
       </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -865,11 +863,11 @@
       <c r="F11" s="1">
         <v>2.2697937198070099</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>-2</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J11" t="s">
@@ -895,13 +893,13 @@
       <c r="F12" s="1">
         <v>-2.6717048387092701</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>3</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -922,11 +920,11 @@
       <c r="F13" s="1">
         <v>0.685933410137749</v>
       </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -947,11 +945,11 @@
       <c r="F14" s="1">
         <v>1.0187857142857399</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>-1</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5">
+      <c r="H14" s="3"/>
+      <c r="I14" s="4">
         <v>1409</v>
       </c>
     </row>
@@ -974,11 +972,11 @@
       <c r="F15" s="1">
         <v>2.81885861401474</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>-3</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1001,13 +999,13 @@
       <c r="F16" s="1">
         <v>-1.6518312013765799</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>1</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>399.82</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1028,11 +1026,11 @@
       <c r="F17" s="1">
         <v>-0.61415044359978299</v>
       </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1053,11 +1051,11 @@
       <c r="F18" s="1">
         <v>3.6912022235076098</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>-4</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1080,11 +1078,11 @@
       <c r="F19" s="1">
         <v>0.72326868095478802</v>
       </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -1105,11 +1103,11 @@
       <c r="F20" s="1">
         <v>0.81170491100328901</v>
       </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -1130,14 +1128,13 @@
       <c r="F21" s="1">
         <v>1.5297739091156399</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>-2</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -1158,13 +1155,13 @@
       <c r="F22" s="1">
         <v>-1.0645931532467301</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>1</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>556.04999999999995</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -1185,13 +1182,13 @@
       <c r="F23" s="1">
         <v>-4.2034000349221898</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>4</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="5"/>
+      <c r="H23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -1212,15 +1209,15 @@
       <c r="F24" s="1">
         <v>3.5928822634796198</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>-3</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
         <v>18</v>
-      </c>
-      <c r="J24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1242,15 +1239,15 @@
       <c r="F25" s="1">
         <v>5.5672822448204897</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>-6</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5" t="s">
-        <v>21</v>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1272,13 +1269,13 @@
       <c r="F26" s="1">
         <v>-8.3579467822241895</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>8</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="5"/>
+      <c r="H26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -1299,11 +1296,11 @@
       <c r="F27" s="1">
         <v>0.32929802442504202</v>
       </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1324,13 +1321,13 @@
       <c r="F28" s="1">
         <v>-7.2995449175045897</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>7</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="5"/>
+      <c r="H28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -1351,11 +1348,11 @@
       <c r="F29" s="1">
         <v>0.92758030057029806</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>-1</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5">
+      <c r="H29" s="3"/>
+      <c r="I29" s="4">
         <v>3374</v>
       </c>
     </row>
@@ -1378,12 +1375,12 @@
       <c r="F30" s="1">
         <v>3.75059093034087</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>-4</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5" t="s">
-        <v>24</v>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1405,11 +1402,11 @@
       <c r="F31" s="1">
         <v>-0.36028838448464701</v>
       </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -1430,11 +1427,11 @@
       <c r="F32" s="1">
         <v>0.53264297385703596</v>
       </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F33" s="2" t="s">

--- a/Holcene Revision/New_Layers.xlsx
+++ b/Holcene Revision/New_Layers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinnmackay/Documents/GitHub/BICC/Holcene Revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF4F5EE-2F7C-F24A-B3C3-57E5B508D27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4EC0E6-F5DE-DB48-A03E-C3D482888DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34480" yWindow="660" windowWidth="34160" windowHeight="26400" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16060" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{6718202D-9754-EC41-AE17-0259CFB78A12}" name="WDC_GICC21_Compare" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/quinnmackay/Documents/GitHub/BICC/Holcene Revision/WDC_GICC21_Compare.tab">
+    <textPr sourceFile="/Users/quinnmackay/Documents/GitHub/BICC/Holcene Revision/Modified_WDC_GICC_Compare.txt">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>WDC(m)</t>
   </si>
@@ -91,9 +91,6 @@
     <t>really hard</t>
   </si>
   <si>
-    <t>1273-1270</t>
-  </si>
-  <si>
     <t>342.83-344.58-340.95</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>total:</t>
   </si>
   <si>
-    <t>2167-2174</t>
-  </si>
-  <si>
     <t>2383-2375-2400</t>
   </si>
   <si>
@@ -121,23 +115,35 @@
     <t>2429-2470-2513-2449-2451-2423</t>
   </si>
   <si>
-    <t>624.13-620.68-628.21-631.70-631.40-645.45-702.75-721.70</t>
-  </si>
-  <si>
-    <t>770.99-773.53-779.22-780.95-784.09-786.99-798.81</t>
-  </si>
-  <si>
-    <t>3433-3442-3499-3535</t>
-  </si>
-  <si>
     <t>582.21-580.58-572.05-578.38</t>
+  </si>
+  <si>
+    <t>391.7-399.82</t>
+  </si>
+  <si>
+    <t>3433-3499-3535</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>1269-1308</t>
+  </si>
+  <si>
+    <t>I think maybe a volcanic layer</t>
+  </si>
+  <si>
+    <t>624.13-718.55-628.21-631.70-631.40-645.45-702.75-721.70</t>
+  </si>
+  <si>
+    <t>771.41-772.10-779.22-780.95-784.09-786.99-798.81</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,8 +158,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +203,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4EA72E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -218,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -228,6 +253,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8886E691-6BFC-854E-9610-16E022706201}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,7 +612,7 @@
     <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,8 +643,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>139.13650000000001</v>
       </c>
@@ -641,8 +671,9 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>142.90114</v>
       </c>
@@ -666,8 +697,9 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>182.41005000000001</v>
       </c>
@@ -691,8 +723,9 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>188.45998</v>
       </c>
@@ -700,24 +733,27 @@
         <v>187.29059000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>690.278098591549</v>
+        <v>691.278098591549</v>
       </c>
       <c r="D5" s="1">
         <v>690.84706666666602</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.56896807511748104</v>
+        <v>0.43103192488251801</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.35458392877603701</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>0.64541607122396205</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>183.39</v>
+      </c>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>208.83713</v>
       </c>
@@ -725,13 +761,13 @@
         <v>205.99639999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>777.190392156862</v>
+        <v>778.190392156862</v>
       </c>
       <c r="D6" s="1">
         <v>777.85699999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.66660784313717103</v>
+        <v>0.33339215686282803</v>
       </c>
       <c r="F6" s="1">
         <v>-9.7639768019689599E-2</v>
@@ -741,8 +777,9 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>223.29808</v>
       </c>
@@ -750,13 +787,13 @@
         <v>219.5368</v>
       </c>
       <c r="C7" s="1">
-        <v>839.27920318725</v>
+        <v>840.27920318725</v>
       </c>
       <c r="D7" s="1">
         <v>840.017511520737</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.73830833348642899</v>
+        <v>0.26169166651357001</v>
       </c>
       <c r="F7" s="1">
         <v>-7.1700490349257906E-2</v>
@@ -766,8 +803,9 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>264.10300000000001</v>
       </c>
@@ -784,15 +822,18 @@
         <v>-8.8727272728874595E-3</v>
       </c>
       <c r="F8" s="1">
-        <v>0.72943560621354198</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
+        <v>-0.27056439378645702</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-1</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="4">
+        <v>848</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>279.31049999999999</v>
       </c>
@@ -800,16 +841,16 @@
         <v>269.39</v>
       </c>
       <c r="C9" s="1">
-        <v>1071.4979166666601</v>
+        <v>1072.4979166666601</v>
       </c>
       <c r="D9" s="1">
         <v>1072.7333333333299</v>
       </c>
       <c r="E9" s="1">
-        <v>-1.23541666666665</v>
+        <v>-0.235416666666424</v>
       </c>
       <c r="F9" s="1">
-        <v>-1.2265439393937601</v>
+        <v>-0.22654393939353601</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
@@ -818,8 +859,9 @@
         <v>271.75</v>
       </c>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>325.77285999999998</v>
       </c>
@@ -827,13 +869,13 @@
         <v>309.70468</v>
       </c>
       <c r="C10" s="1">
-        <v>1266.6472173913</v>
+        <v>1267.6472173913</v>
       </c>
       <c r="D10" s="1">
         <v>1268.13191111111</v>
       </c>
       <c r="E10" s="1">
-        <v>-1.4846937198069501</v>
+        <v>-0.48469371980672799</v>
       </c>
       <c r="F10" s="1">
         <v>-0.24927705314030299</v>
@@ -843,8 +885,9 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>339.464</v>
       </c>
@@ -852,29 +895,30 @@
         <v>320.86797999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D11" s="1">
         <v>1322.2148999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.78510000000005598</v>
+        <v>-0.214899999999943</v>
       </c>
       <c r="F11" s="1">
-        <v>2.2697937198070099</v>
+        <v>0.26979371980678402</v>
       </c>
       <c r="G11" s="7">
         <v>-2</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>351.35205000000002</v>
       </c>
@@ -882,26 +926,27 @@
         <v>331.87844999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1373.50564516129</v>
+        <v>1375.50564516129</v>
       </c>
       <c r="D12" s="1">
         <v>1375.3922499999901</v>
       </c>
       <c r="E12" s="1">
-        <v>-1.88660483870921</v>
+        <v>0.11339516129055401</v>
       </c>
       <c r="F12" s="1">
-        <v>-2.6717048387092701</v>
+        <v>0.32829516129049802</v>
       </c>
       <c r="G12" s="6">
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>359.66140000000001</v>
       </c>
@@ -909,24 +954,30 @@
         <v>338.89202999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>1407.93942857142</v>
+        <v>1408.93942857142</v>
       </c>
       <c r="D13" s="1">
         <v>1409.1400999999901</v>
       </c>
       <c r="E13" s="1">
-        <v>-1.2006714285714599</v>
+        <v>-0.20067142857124001</v>
       </c>
       <c r="F13" s="1">
-        <v>0.685933410137749</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
+        <v>-0.31406658986179498</v>
+      </c>
+      <c r="G13" s="7">
+        <v>-1</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="4">
+        <v>1394</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>361.01751999999999</v>
       </c>
@@ -943,7 +994,7 @@
         <v>-0.181885714285726</v>
       </c>
       <c r="F14" s="1">
-        <v>1.0187857142857399</v>
+        <v>1.8785714285513601E-2</v>
       </c>
       <c r="G14" s="7">
         <v>-1</v>
@@ -952,8 +1003,9 @@
       <c r="I14" s="4">
         <v>1409</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>380.16845999999998</v>
       </c>
@@ -961,26 +1013,27 @@
         <v>356.26280000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>1495.0271951219499</v>
+        <v>1492.0271951219499</v>
       </c>
       <c r="D15" s="1">
         <v>1492.39022222222</v>
       </c>
       <c r="E15" s="1">
-        <v>2.6369728997290101</v>
+        <v>-0.36302710027098301</v>
       </c>
       <c r="F15" s="1">
-        <v>2.81885861401474</v>
+        <v>-0.181141385985256</v>
       </c>
       <c r="G15" s="7">
         <v>-3</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>423.70557000000002</v>
       </c>
@@ -988,26 +1041,27 @@
         <v>394.24423000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1683.07060836501</v>
+        <v>1682.07060836501</v>
       </c>
       <c r="D16" s="1">
         <v>1682.0854666666601</v>
       </c>
       <c r="E16" s="1">
-        <v>0.98514169835243504</v>
+        <v>-1.4858301647791399E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>-1.6518312013765799</v>
+        <v>0.348168798623191</v>
       </c>
       <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>399.82</v>
+        <v>2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>445.54683999999997</v>
       </c>
@@ -1024,15 +1078,18 @@
         <v>0.37099125475265199</v>
       </c>
       <c r="F17" s="1">
-        <v>-0.61415044359978299</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>0.38584955640044399</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>442.87</v>
+      </c>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>518.44269999999995</v>
       </c>
@@ -1040,26 +1097,27 @@
         <v>475.05817000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>2096.6030434782601</v>
+        <v>2092.6030434782601</v>
       </c>
       <c r="D18" s="1">
         <v>2092.5408499999999</v>
       </c>
       <c r="E18" s="1">
-        <v>4.0621934782602596</v>
+        <v>6.2193478260269303E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>3.6912022235076098</v>
+        <v>-0.30879777649238299</v>
       </c>
       <c r="G18" s="7">
         <v>-4</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>523.80319999999995</v>
       </c>
@@ -1067,24 +1125,27 @@
         <v>479.29388</v>
       </c>
       <c r="C19" s="1">
-        <v>2119.6076335877801</v>
+        <v>2114.6076335877801</v>
       </c>
       <c r="D19" s="1">
         <v>2114.8221714285701</v>
       </c>
       <c r="E19" s="1">
-        <v>4.7854621592150499</v>
+        <v>-0.21453784078539601</v>
       </c>
       <c r="F19" s="1">
-        <v>0.72326868095478802</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
+        <v>-0.276731319045666</v>
+      </c>
+      <c r="G19" s="7">
+        <v>-1</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I19" s="4">
+        <v>2108</v>
+      </c>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>532.68799999999999</v>
       </c>
@@ -1092,24 +1153,27 @@
         <v>486.67574999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>2160.1728813559298</v>
+        <v>2154.1728813559298</v>
       </c>
       <c r="D20" s="1">
         <v>2154.5757142857101</v>
       </c>
       <c r="E20" s="1">
-        <v>5.5971670702183403</v>
+        <v>-0.402832929782107</v>
       </c>
       <c r="F20" s="1">
-        <v>0.81170491100328901</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
+        <v>-0.18829508899670999</v>
+      </c>
+      <c r="G20" s="7">
+        <v>-1</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I20" s="4">
+        <v>2142</v>
+      </c>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>541.39795000000004</v>
       </c>
@@ -1117,26 +1181,27 @@
         <v>493.04770000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>2196.19828244274</v>
+        <v>2189.19828244274</v>
       </c>
       <c r="D21" s="1">
         <v>2189.0713414634101</v>
       </c>
       <c r="E21" s="1">
-        <v>7.1269409793339902</v>
+        <v>0.12694097933399401</v>
       </c>
       <c r="F21" s="1">
-        <v>1.5297739091156399</v>
+        <v>0.529773909116102</v>
       </c>
       <c r="G21" s="7">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I21" s="4">
+        <v>2167</v>
+      </c>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>568.04070000000002</v>
       </c>
@@ -1144,16 +1209,16 @@
         <v>513.43979999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>2306.9943478260798</v>
+        <v>2300.9943478260798</v>
       </c>
       <c r="D22" s="1">
         <v>2300.9319999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>6.0623478260872599</v>
+        <v>6.2347826087261603E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>-1.0645931532467301</v>
+        <v>-6.4593153246732898E-2</v>
       </c>
       <c r="G22" s="6">
         <v>1</v>
@@ -1162,8 +1227,9 @@
         <v>556.04999999999995</v>
       </c>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>583.83950000000004</v>
       </c>
@@ -1171,26 +1237,27 @@
         <v>526.74419999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>2374.6536144578299</v>
+        <v>2372.2627118644</v>
       </c>
       <c r="D23" s="1">
         <v>2372.7946666666599</v>
       </c>
       <c r="E23" s="1">
-        <v>1.85894779116506</v>
+        <v>-0.53195480225940595</v>
       </c>
       <c r="F23" s="1">
-        <v>-4.2034000349221898</v>
+        <v>-0.59430262834666703</v>
       </c>
       <c r="G23" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>593.95240000000001</v>
       </c>
@@ -1198,29 +1265,30 @@
         <v>534.13793999999996</v>
       </c>
       <c r="C24" s="1">
-        <v>2417.64153005464</v>
+        <v>2412.64153005464</v>
       </c>
       <c r="D24" s="1">
         <v>2412.1896999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>5.4518300546446801</v>
+        <v>0.45183005464468801</v>
       </c>
       <c r="F24" s="1">
-        <v>3.5928822634796198</v>
+        <v>0.98378485690409401</v>
       </c>
       <c r="G24" s="7">
         <v>-3</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>619.32996000000003</v>
       </c>
@@ -1228,29 +1296,30 @@
         <v>553.47059999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>2529.4971122994598</v>
+        <v>2518.4971122994598</v>
       </c>
       <c r="D25" s="1">
         <v>2518.4780000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>11.0191122994651</v>
+        <v>1.9112299465632501E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>5.5672822448204897</v>
+        <v>-0.43271775517905497</v>
       </c>
       <c r="G25" s="7">
         <v>-6</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>747.65719999999999</v>
       </c>
@@ -1258,26 +1327,27 @@
         <v>659.32324000000006</v>
       </c>
       <c r="C26" s="1">
-        <v>3120.7939655172399</v>
+        <v>3117.7939655172399</v>
       </c>
       <c r="D26" s="1">
         <v>3118.1327999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>2.6611655172409798</v>
+        <v>-0.33883448275901101</v>
       </c>
       <c r="F26" s="1">
-        <v>-8.3579467822241895</v>
+        <v>-0.35794678222464399</v>
       </c>
       <c r="G26" s="6">
         <v>8</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>765.16394000000003</v>
       </c>
@@ -1285,24 +1355,25 @@
         <v>673.50120000000004</v>
       </c>
       <c r="C27" s="1">
-        <v>3202.8317968749998</v>
+        <v>3199.8317968749998</v>
       </c>
       <c r="D27" s="1">
         <v>3199.8413333333301</v>
       </c>
       <c r="E27" s="1">
-        <v>2.9904635416660299</v>
+        <v>-9.5364583335140196E-3</v>
       </c>
       <c r="F27" s="1">
-        <v>0.32929802442504202</v>
+        <v>0.32929802442549699</v>
       </c>
       <c r="G27" s="8">
         <v>0</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>799.77059999999994</v>
       </c>
@@ -1310,26 +1381,27 @@
         <v>701.84100000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>3363.9593749999999</v>
+        <v>3367.9593749999999</v>
       </c>
       <c r="D28" s="1">
         <v>3368.2684563758298</v>
       </c>
       <c r="E28" s="1">
-        <v>-4.3090813758385504</v>
+        <v>-0.30908137583855899</v>
       </c>
       <c r="F28" s="1">
-        <v>-7.2995449175045897</v>
+        <v>-0.29954491750504503</v>
       </c>
       <c r="G28" s="6">
         <v>7</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>810.3125</v>
       </c>
@@ -1337,26 +1409,27 @@
         <v>709.99976000000004</v>
       </c>
       <c r="C29" s="1">
-        <v>3414.04569892473</v>
+        <v>3417.04569892473</v>
       </c>
       <c r="D29" s="1">
         <v>3417.4272000000001</v>
       </c>
       <c r="E29" s="1">
-        <v>-3.3815010752682602</v>
+        <v>-0.38150107526871502</v>
       </c>
       <c r="F29" s="1">
-        <v>0.92758030057029806</v>
+        <v>-7.2419699430156401E-2</v>
       </c>
       <c r="G29" s="7">
         <v>-1</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="4">
-        <v>3374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3375</v>
+      </c>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>841.38340000000005</v>
       </c>
@@ -1373,17 +1446,18 @@
         <v>0.36908985507261599</v>
       </c>
       <c r="F30" s="1">
-        <v>3.75059093034087</v>
+        <v>0.75059093034133095</v>
       </c>
       <c r="G30" s="7">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>845.08385999999996</v>
       </c>
@@ -1407,8 +1481,9 @@
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>850.73009999999999</v>
       </c>
@@ -1416,30 +1491,33 @@
         <v>740.58219999999994</v>
       </c>
       <c r="C32" s="1">
-        <v>3603.2561111111099</v>
+        <v>3602.2561111111099</v>
       </c>
       <c r="D32" s="1">
         <v>3602.7146666666599</v>
       </c>
       <c r="E32" s="1">
-        <v>0.54144444444500495</v>
+        <v>-0.458555555554994</v>
       </c>
       <c r="F32" s="1">
-        <v>0.53264297385703596</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
+        <v>-0.46735702614296298</v>
+      </c>
+      <c r="G32" s="7">
+        <v>-1</v>
       </c>
       <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="4">
+        <v>3602</v>
+      </c>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33">
         <f>SUM(G2:G32)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Holcene Revision/New_Layers.xlsx
+++ b/Holcene Revision/New_Layers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinnmackay/Documents/GitHub/BICC/Holcene Revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8AB45E-EAE4-C24C-8632-212C538E210D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0936B989-4342-CC44-92AB-EE6CF5522432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16040" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16000" xr2:uid="{4DA22EE9-F53B-0A41-9821-C6FC1BEF8675}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>total:</t>
   </si>
   <si>
-    <t>3433-3499-3535</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
@@ -195,13 +192,16 @@
     <t>844.35: Small peaks visible in all measurements. +1/-1 with above.</t>
   </si>
   <si>
-    <t>+1/-1 with below.</t>
-  </si>
-  <si>
-    <t>aim for -2</t>
-  </si>
-  <si>
     <t xml:space="preserve">3602: Weak peaks in all sections but SO4/Na. Big depth between layers, though, but it is near the volcanic layer. </t>
+  </si>
+  <si>
+    <t>+1/-1 with below. 3499: In the middle of volcanic spike, smaller spikes for each measurements, may be attributed with volcanic spike. 3535: Weaker peaks for DEP, Na, NO3, but strong peak for SO4. Best candidate for second removal in this stretch.</t>
+  </si>
+  <si>
+    <t>3499-3535</t>
+  </si>
+  <si>
+    <t>3587-3602</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8886E691-6BFC-854E-9610-16E022706201}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="84" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,10 +719,10 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -831,7 +831,7 @@
       <c r="I5" s="3"/>
       <c r="K5" s="8"/>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
       <c r="I8" s="3"/>
       <c r="K8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -941,7 +941,7 @@
       <c r="I9" s="3"/>
       <c r="K9" s="8"/>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -998,7 +998,7 @@
       </c>
       <c r="K11" s="8"/>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1029,7 +1029,7 @@
       <c r="I12" s="3"/>
       <c r="K12" s="8"/>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="K14" s="8"/>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1109,15 +1109,15 @@
         <v>2.81885861401474</v>
       </c>
       <c r="G15" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
       <c r="I16" s="3"/>
       <c r="K16" s="8"/>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
       <c r="I17" s="3"/>
       <c r="K17" s="8"/>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="K20" s="8"/>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="K21" s="8"/>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1334,7 +1334,7 @@
       <c r="I22" s="3"/>
       <c r="K22" s="8"/>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1360,12 +1360,12 @@
         <v>3</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="3"/>
       <c r="K23" s="8"/>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1423,11 +1423,11 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1453,12 +1453,12 @@
         <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" s="3"/>
       <c r="K26" s="8"/>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1510,12 +1510,12 @@
         <v>6</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I28" s="3"/>
       <c r="K28" s="8"/>
       <c r="L28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1544,7 +1544,7 @@
       <c r="I29" s="3"/>
       <c r="K29" s="8"/>
       <c r="L29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1567,15 +1567,13 @@
         <v>3.75059093034087</v>
       </c>
       <c r="G30" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" t="s">
         <v>42</v>
       </c>
+      <c r="K30" s="8"/>
       <c r="L30" s="7" t="s">
         <v>41</v>
       </c>
@@ -1599,16 +1597,14 @@
       <c r="F31" s="9">
         <v>-0.36028838448464701</v>
       </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>844.35</v>
-      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="3"/>
       <c r="K31" s="8"/>
       <c r="L31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1631,15 +1627,15 @@
         <v>0.53264297385703596</v>
       </c>
       <c r="G32" s="5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="3">
-        <v>3602</v>
+      <c r="I32" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.2">
